--- a/biology/Botanique/Rotin/Rotin.xlsx
+++ b/biology/Botanique/Rotin/Rotin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rotin est un nom vernaculaire ambigu donné en français à plusieurs palmiers des genres Calamus et Daemonorops. 
 Voir l'article Calamus (plante) pour plus de détails.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rotin est un palmier à lianes ayant des épines et qui possède au bout de ses feuilles un flagelle dont les crochets lui permettent de ramper sur les arbres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rotin est un palmier à lianes ayant des épines et qui possède au bout de ses feuilles un flagelle dont les crochets lui permettent de ramper sur les arbres.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils fournissent un matériau très utilisé en vannerie (cannage, fabrication de meubles). Les artisans qui travaillent le rotin sont appelés rotiniers. 
 			Cannage d'une chaise
